--- a/data/trans_camb/P43C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P43C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,19</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,68; 21,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,99; 40,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,68; 21,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,99; 40,94</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,52%</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 41,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,32; 80,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 41,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,32; 80,18</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,21; 24,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,71; 25,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 10,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,21; 24,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,71; 25,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 10,29</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,68; 46,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,64; 49,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 20,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,68; 46,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,64; 49,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 20,15</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 7,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,18; 29,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 13,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 7,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,18; 29,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 13,31</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 15,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,35; 56,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 25,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 15,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,35; 56,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 25,26</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,85</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 18,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,46; 20,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 20,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 18,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,46; 20,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 20,85</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,72%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,99; 34,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,65; 38,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 39,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,99; 34,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,65; 38,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 39,44</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,7; 30,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 11,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 5,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,7; 30,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 11,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 5,96</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,25%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,96; 84,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,59; 32,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,81; 16,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,96; 84,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,59; 32,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,81; 16,63</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 15,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,1; -15,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 3,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 15,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,1; -15,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 3,26</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,95%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,99%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 38,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,47; -36,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; 8,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 38,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,47; -36,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; 8,13</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 5,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 4,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,09; 11,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 5,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 4,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,09; 11,91</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,73%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 9,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 6,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,03; 18,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 9,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 6,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,03; 18,89</t>
         </is>
       </c>
     </row>
@@ -2159,32 +2159,32 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,38</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,38</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,91</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 23,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 24,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; -0,93</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 23,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 24,16</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; -0,93</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,49%</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,43; 53,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,04; 54,33</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,4; -2,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,43; 53,36</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,04; 54,33</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,4; -2,08</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2375,32 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 5,33</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 13,54</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 12,68</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 5,33</t>
         </is>
       </c>
     </row>
@@ -2481,32 +2481,32 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 9,98</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,8; 25,81</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,21; 24,24</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 9,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Provincia-trans_camb.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,19</t>
+          <t>33,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,19</t>
+          <t>33,29</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 22,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,99; 40,94</t>
+          <t>23,16; 40,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 22,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,99; 40,94</t>
+          <t>23,16; 40,4</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>57,96%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 42,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,32; 80,18</t>
+          <t>38,44; 79,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 42,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,32; 80,18</t>
+          <t>38,44; 79,0</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,97</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,29</t>
+          <t>-2,04; 10,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,29</t>
+          <t>-2,04; 10,21</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,26%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 20,15</t>
+          <t>-3,49; 20,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 20,15</t>
+          <t>-3,49; 20,17</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,77</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 13,31</t>
+          <t>-1,92; 13,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 13,31</t>
+          <t>-1,92; 13,25</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 25,26</t>
+          <t>-3,24; 25,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 25,26</t>
+          <t>-3,24; 25,37</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>19,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>19,37</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,13</t>
+          <t>3,65; 17,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 20,85</t>
+          <t>7,77; 31,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,13</t>
+          <t>3,65; 17,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 20,85</t>
+          <t>7,77; 31,14</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>34,25%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,99; 34,54</t>
+          <t>6,29; 34,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 39,44</t>
+          <t>12,53; 58,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,99; 34,54</t>
+          <t>6,29; 34,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 39,44</t>
+          <t>12,53; 58,32</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 5,96</t>
+          <t>-10,48; 6,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 5,96</t>
+          <t>-10,48; 6,56</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>-4,84%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 16,63</t>
+          <t>-22,34; 18,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 16,63</t>
+          <t>-22,34; 18,19</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-5,16</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 3,26</t>
+          <t>-13,4; 3,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 3,26</t>
+          <t>-13,4; 3,39</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>-11,14%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 8,13</t>
+          <t>-26,43; 8,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 8,13</t>
+          <t>-26,43; 8,13</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-12,21</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 11,91</t>
+          <t>-43,54; 12,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 11,91</t>
+          <t>-43,54; 12,03</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-19,22%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 18,89</t>
+          <t>-68,73; 19,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 18,89</t>
+          <t>-68,73; 19,19</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-5,48</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,93</t>
+          <t>-10,46; -0,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,93</t>
+          <t>-10,46; -0,46</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>-11,59%</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -2,08</t>
+          <t>-21,37; -1,14</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -2,08</t>
+          <t>-21,37; -1,14</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,33</t>
+          <t>-11,25; 7,48</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,33</t>
+          <t>-11,25; 7,48</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,98</t>
+          <t>-20,31; 13,99</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,98</t>
+          <t>-20,31; 13,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 22,54</t>
+          <t>6,11; 23,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 21,96</t>
+          <t>5,72; 22,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 40,4</t>
+          <t>23,46; 40,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 22,54</t>
+          <t>6,11; 23,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 21,96</t>
+          <t>5,72; 22,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 40,4</t>
+          <t>23,46; 40,37</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 42,81</t>
+          <t>9,97; 44,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 41,4</t>
+          <t>9,28; 41,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 79,0</t>
+          <t>37,8; 77,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 42,81</t>
+          <t>9,97; 44,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 41,4</t>
+          <t>9,28; 41,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 79,0</t>
+          <t>37,8; 77,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 24,12</t>
+          <t>12,32; 24,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 25,08</t>
+          <t>12,88; 24,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,21</t>
+          <t>-2,47; 10,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 24,12</t>
+          <t>12,32; 24,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 25,08</t>
+          <t>12,88; 24,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,21</t>
+          <t>-2,47; 10,59</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 46,4</t>
+          <t>20,91; 46,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,64; 49,52</t>
+          <t>21,9; 48,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 20,17</t>
+          <t>-4,3; 21,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 46,4</t>
+          <t>20,91; 46,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,64; 49,52</t>
+          <t>21,9; 48,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 20,17</t>
+          <t>-4,3; 21,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 7,94</t>
+          <t>-7,55; 7,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 29,42</t>
+          <t>15,21; 28,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 13,25</t>
+          <t>-1,46; 13,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 7,94</t>
+          <t>-7,55; 7,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 29,42</t>
+          <t>15,21; 28,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 13,25</t>
+          <t>-1,46; 13,61</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 15,17</t>
+          <t>-12,7; 14,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 56,83</t>
+          <t>25,09; 55,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 25,37</t>
+          <t>-2,36; 26,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 15,17</t>
+          <t>-12,7; 14,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 56,83</t>
+          <t>25,09; 55,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 25,37</t>
+          <t>-2,36; 26,33</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 17,68</t>
+          <t>2,96; 17,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 20,15</t>
+          <t>6,28; 19,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 31,14</t>
+          <t>8,93; 31,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 17,68</t>
+          <t>2,96; 17,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 20,15</t>
+          <t>6,28; 19,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 31,14</t>
+          <t>8,93; 31,67</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 34,07</t>
+          <t>4,65; 33,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,65; 38,13</t>
+          <t>10,03; 36,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,53; 58,32</t>
+          <t>15,31; 59,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 34,07</t>
+          <t>4,65; 33,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,65; 38,13</t>
+          <t>10,03; 36,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,53; 58,32</t>
+          <t>15,31; 59,89</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,7; 30,79</t>
+          <t>11,98; 30,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 11,53</t>
+          <t>-8,61; 10,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,56</t>
+          <t>-11,45; 5,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,7; 30,79</t>
+          <t>11,98; 30,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 11,53</t>
+          <t>-8,61; 10,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,56</t>
+          <t>-11,45; 5,97</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,96; 84,75</t>
+          <t>25,19; 84,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 32,08</t>
+          <t>-17,96; 27,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 18,19</t>
+          <t>-23,77; 16,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,96; 84,75</t>
+          <t>25,19; 84,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 32,08</t>
+          <t>-17,96; 27,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 18,19</t>
+          <t>-23,77; 16,54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,93</t>
+          <t>-0,65; 16,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -15,17</t>
+          <t>-30,94; -14,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 3,39</t>
+          <t>-13,09; 2,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,93</t>
+          <t>-0,65; 16,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -15,17</t>
+          <t>-30,94; -14,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 3,39</t>
+          <t>-13,09; 2,86</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 38,04</t>
+          <t>-1,37; 40,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -36,4</t>
+          <t>-61,0; -35,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 8,13</t>
+          <t>-25,93; 6,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 38,04</t>
+          <t>-1,37; 40,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -36,4</t>
+          <t>-61,0; -35,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 8,13</t>
+          <t>-25,93; 6,63</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,65</t>
+          <t>-4,82; 5,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 4,09</t>
+          <t>-6,52; 4,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 12,03</t>
+          <t>-43,83; 12,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,65</t>
+          <t>-4,82; 5,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 4,09</t>
+          <t>-6,52; 4,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 12,03</t>
+          <t>-43,83; 12,81</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 9,38</t>
+          <t>-7,26; 8,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,52</t>
+          <t>-9,83; 7,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 19,19</t>
+          <t>-68,84; 20,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 9,38</t>
+          <t>-7,26; 8,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,52</t>
+          <t>-9,83; 7,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 19,19</t>
+          <t>-68,84; 20,5</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,23; 23,51</t>
+          <t>13,08; 23,16</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,09; 24,16</t>
+          <t>14,55; 24,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -0,46</t>
+          <t>-10,42; -0,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>13,23; 23,51</t>
+          <t>13,08; 23,16</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>14,09; 24,16</t>
+          <t>14,55; 24,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -0,46</t>
+          <t>-10,42; -0,03</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>26,43; 53,36</t>
+          <t>25,73; 51,56</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,04; 54,33</t>
+          <t>28,79; 56,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -1,14</t>
+          <t>-20,96; -0,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>26,43; 53,36</t>
+          <t>25,73; 51,56</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>28,04; 54,33</t>
+          <t>28,79; 56,12</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -1,14</t>
+          <t>-20,96; -0,07</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,54</t>
+          <t>8,86; 13,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,68</t>
+          <t>7,95; 12,56</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 7,48</t>
+          <t>-10,19; 7,85</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,54</t>
+          <t>8,86; 13,63</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,68</t>
+          <t>7,95; 12,56</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 7,48</t>
+          <t>-10,19; 7,85</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,81</t>
+          <t>16,13; 26,12</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,24</t>
+          <t>14,45; 23,75</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 13,99</t>
+          <t>-18,72; 14,66</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,81</t>
+          <t>16,13; 26,12</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,24</t>
+          <t>14,45; 23,75</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 13,99</t>
+          <t>-18,72; 14,66</t>
         </is>
       </c>
     </row>
